--- a/Wash Data Sheet v1.xlsx
+++ b/Wash Data Sheet v1.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amar pc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\M&amp;J\All Works\New Projects\GWLWashRecipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F63FB6B-2E20-4DE1-8DAC-F608D91B624C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953FF040-F2F5-4B2E-8F28-B6F5423F1410}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="18495" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipe" sheetId="1" r:id="rId1"/>
     <sheet name="Data Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Tables" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="287">
   <si>
     <t>Wash Type</t>
   </si>
@@ -836,6 +837,57 @@
   </si>
   <si>
     <t>Name of Chemical - Item Mapping Form- Chem Prefix -41</t>
+  </si>
+  <si>
+    <t>TABLES:</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_MASTER</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_DETAIL</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_WATER_AMOUNT</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_CHEMICAL</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_CHEMICAL_AMOUNT</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_TEMP</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_MACHINE_RPM</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_MACHINE_NO</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_SHIFT</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_GMT_CATEGORY</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_GMT_TYPE</t>
+  </si>
+  <si>
+    <t>SEQ:</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_MASTER_S</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_DETAIL_S</t>
+  </si>
+  <si>
+    <t>Select * from</t>
+  </si>
+  <si>
+    <t>MJ_GWL_RECIPE_WASHTYPE</t>
   </si>
 </sst>
 </file>
@@ -865,7 +917,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -887,6 +939,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,7 +1014,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1245,7 +1303,7 @@
       <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1342,7 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1808,7 +1866,7 @@
   <dimension ref="A1:K102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3961,4 +4019,140 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6272D708-F621-4610-B0AD-2D3E549A95B3}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCellId="1" sqref="A1 A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B18" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Wash Data Sheet v1.xlsx
+++ b/Wash Data Sheet v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\M&amp;J\All Works\New Projects\GWLWashRecipe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953FF040-F2F5-4B2E-8F28-B6F5423F1410}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C80FE11-F892-46F1-9163-7916F53427C6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="18495" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1303,7 +1303,7 @@
       <pane xSplit="8" ySplit="7" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1355,7 @@
         <v>15</v>
       </c>
       <c r="H2" s="4">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="H3" s="4">
         <f>H2*H4</f>
-        <v>5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1396,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
